--- a/P0115509_GPD.xlsx
+++ b/P0115509_GPD.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="75" windowWidth="19050" windowHeight="5775" tabRatio="623"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8940" tabRatio="623"/>
   </bookViews>
   <sheets>
     <sheet name="casos de prueba" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="APPLICATION">'casos de prueba'!#REF!</definedName>
   </definedNames>
@@ -385,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
   <si>
     <t xml:space="preserve">Matriz de Casos de Prueba </t>
   </si>
@@ -473,254 +476,244 @@
     <t>Se muestra la aplicación si son correctos los datos de Usuario/Contraseña</t>
   </si>
   <si>
-    <t>Entrar a la aplicación TREO: Usuario / Contraseña</t>
-  </si>
-  <si>
     <t>Step 4</t>
   </si>
   <si>
-    <t>Step2</t>
-  </si>
-  <si>
     <t>Step 5</t>
   </si>
   <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Step 7</t>
-  </si>
-  <si>
-    <t>Step 8</t>
-  </si>
-  <si>
-    <t>Step 9</t>
-  </si>
-  <si>
-    <t>Step 10</t>
-  </si>
-  <si>
-    <t>Step 11</t>
-  </si>
-  <si>
-    <t>Step 12</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
     <t>Número de Versión:  1.0</t>
   </si>
   <si>
-    <t>Fecha Actualización: 10/05/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0115509 - Alta de intermediario
+    <t>Se debe de mostrar la pantalla de captura de intermediario</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Se debe de mostrar la pantalla de captura de intermediario con los campos precargados</t>
+  </si>
+  <si>
+    <t>Se muestra la pantalla de Regeneración de Archivo FullSuite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejemplo:
+Descripción: Prueba
+Otros: AF01
+Contraparte: 0
+Limite: 1
+Contrato: contratoPrueba01
+Estatus: Activo
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar el alta de un intermediario.
-</t>
-  </si>
-  <si>
-    <t>EL44052</t>
-  </si>
-  <si>
-    <t>Menu: Catalogos &gt; Intermediarios</t>
-  </si>
-  <si>
-    <t>Se debe de mostrar el catalogo de intermediarios</t>
-  </si>
-  <si>
-    <t>Clic en el boton Agregar</t>
-  </si>
-  <si>
-    <t>Se debe de mostrar la pantalla de captura de intermediario</t>
-  </si>
-  <si>
-    <t>Llenar los campos:
+    <t>Entrar a la aplicación TREO: Usuario para UAT2 con perfil: TESOGERENTE1 ó TESADMINISTRADOR / Contraseña</t>
+  </si>
+  <si>
+    <t>Menú: Catálogos &gt; Intermediarios</t>
+  </si>
+  <si>
+    <t>Se debe de mostrar el catálogo de intermediarios</t>
+  </si>
+  <si>
+    <t>Clic en el botón Agregar</t>
+  </si>
+  <si>
+    <t>Se mostrará un mensaje preguntándonos si deseamos realizar la tarea</t>
+  </si>
+  <si>
+    <t>Clic en el botón Aceptar</t>
+  </si>
+  <si>
+    <t>Se agregará al catálogo el nuevo intermediario</t>
+  </si>
+  <si>
+    <t>Seleccionar un intermediario de la lista y hacer clic en el botón Editar</t>
+  </si>
+  <si>
+    <t>Se mostrarán los campos actualizados del intermediario previamente modificado</t>
+  </si>
+  <si>
+    <t>Menú: Procesos &gt; Exportación &gt; Generación de Póliza SIF</t>
+  </si>
+  <si>
+    <t>Se mostrará la pantalla de Generación de Póliza SIF</t>
+  </si>
+  <si>
+    <t>Hacemos clic en el botón Exportar a Contabilidad</t>
+  </si>
+  <si>
+    <t>Se mostrará un mensaje informándonos que se insertó correctamente en PeopleSoft así como también se nos indicara que ha sido creado el archivo de Feed Balance Diario</t>
+  </si>
+  <si>
+    <t>Menú: Procesos &gt; Exportación &gt; Regeneración de Archivo FullSuite</t>
+  </si>
+  <si>
+    <t>EM29352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llenar los campos:
 -Descripción
 -Otros
 -Contraparte
 -Limite
 -Contrato
 -Estatus
-Dar clic en el boton Agregar</t>
-  </si>
-  <si>
-    <t>Se mostrara un mensaje preguntandonos si deseamos realizar la tarea</t>
-  </si>
-  <si>
-    <t>Clic en el boton Aceptar</t>
-  </si>
-  <si>
-    <t>Se agregara al catalogo el nuevo intermediario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0115509 - Modificiación de intermediario
+Dar clic en el botón Agregar
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar la modificación de un intermediario.
-</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Seleccionar un intermediario de la lista y hacer clic en el boton Editar</t>
-  </si>
-  <si>
-    <t>Se debe de mostrar la pantalla de captura de intermediario con los campos precargados</t>
-  </si>
-  <si>
-    <t>Modificar los campos:
+    <t xml:space="preserve">Modificar los campos:
 -Descripción
 -Otros
 -Contraparte
 -Limite
 -Contrato
 -Estatus
-Dar clic en el boton Agregar</t>
-  </si>
-  <si>
-    <t>Se mostraran los campos actualizados del intermediario previamente modificado</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0115509 - Generación del archivo Feed Balance Diario
+Dar clic en el botón Agregar
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar el proceso de Generación de polizas SIF para que asi se ejecute al final de este el proceso de la Generación del archivo Feed Balance Diario
+    <t>Seleccionar la siguiente fecha 06/07/2018</t>
+  </si>
+  <si>
+    <t>Fecha Actualización: 19/07/2018</t>
+  </si>
+  <si>
+    <t>P0115509</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>RS-0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se requiere modificar la pagina y código del catálogo de intermediarios para incluir el numero de contrato por intermediario.
 </t>
   </si>
   <si>
-    <t>Menu: Movimientos &gt; Depósitos</t>
-  </si>
-  <si>
-    <t>Se mostrará el menu de depósitos</t>
-  </si>
-  <si>
-    <t>Se muestra la pantalla de captura de Depósitos</t>
-  </si>
-  <si>
-    <t>Capturar el depósito y  dar clic en Agregar</t>
-  </si>
-  <si>
-    <t>Se mostrara el nuevo registro en el menu de Movimientos</t>
-  </si>
-  <si>
-    <t>Menu: Movimientos &gt; Cheques</t>
-  </si>
-  <si>
-    <t>Se mostrará el menu de cheques</t>
-  </si>
-  <si>
-    <t>Se muestra la pantalla de captura de Cheques</t>
-  </si>
-  <si>
-    <t>Capturar el cheque y  dar clic en Agregar</t>
-  </si>
-  <si>
-    <t>Se mostrara el nuevo registro en el menu de Cheques</t>
-  </si>
-  <si>
-    <t>Menu: Procesos &gt;Autorizar</t>
-  </si>
-  <si>
-    <t>Se mostrara el menu de Autorización de movimientos</t>
-  </si>
-  <si>
-    <t>La autorización se debe de hacer con un usuario diferente al utilizado para la captura de depositos y cheques</t>
-  </si>
-  <si>
-    <t>En el campo movimientos seleccionar Cheques y  hacer clic en buscar, repetir el mismo proceso para Depósitos</t>
-  </si>
-  <si>
-    <t>Se mostraran los movimientos previamente registrados</t>
-  </si>
-  <si>
-    <t>Seleccionamos el check box Autorizar y hacemos clic en el boton Autorizar</t>
-  </si>
-  <si>
-    <t>Se mostrara un mensaje indicando que se autorizarn los movimientos</t>
-  </si>
-  <si>
-    <t>Menu: Procesos &gt; Cierre &gt; Cierre Previo</t>
-  </si>
-  <si>
-    <t>Se mostrara la pantalla de cierre previo</t>
-  </si>
-  <si>
-    <t>Se mostraran en pantalla los movimientos registrados y la leyenda de que el proceso ha terminado</t>
-  </si>
-  <si>
-    <t>Menu: Procesos &gt; Cierre &gt; Cierre Definitivo</t>
-  </si>
-  <si>
-    <t>Se mostrara la pantalla de cierre definitivo con los movimientos previamente registrados</t>
-  </si>
-  <si>
-    <t>Clic en Aceptar</t>
-  </si>
-  <si>
-    <t>Se mostrara un menaje en el cual se nos informa que el proceso ha terminado</t>
-  </si>
-  <si>
-    <t>Menu: Procesos &gt; Exportación &gt; Generación de Póliza SIF</t>
-  </si>
-  <si>
-    <t>Se mostrara la pantalla de Generación de Póliza SIF</t>
-  </si>
-  <si>
-    <t>Acemos clic en el boton Exportar a Contabilidad</t>
-  </si>
-  <si>
-    <t>Se mostrara un mensaje informandonos que se inserto correctamente en PeopleSoft asi como tambien se nos indicara que ha sido creado el archivo de Feed Balance Diario</t>
-  </si>
-  <si>
-    <t>Step 13</t>
-  </si>
-  <si>
-    <t>Step 14</t>
-  </si>
-  <si>
-    <t>Step 15</t>
-  </si>
-  <si>
-    <t>Step 16</t>
-  </si>
-  <si>
-    <t>Step 17</t>
-  </si>
-  <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0115509 - Regeneración del archivo Feed Balance Diario
+    <t>Modificación de la pantalla y codigo del catalogo de intermediarios</t>
+  </si>
+  <si>
+    <t>RS-0020</t>
+  </si>
+  <si>
+    <t>Se requiere generar una nueva función en el sistema de Tesoreria la cual permita generar el archivo de Feed Balance Diario al momento que termine el proceso de exportación de polizas a contabilidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación del metodo para la generación del Feed Balance Diario
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar la regeneración del archivo Feed Balance Diario
+    <t>Obtener los archivos con prefijo LOG_151777_TREO_L_MX_001_20180706 en la ruta: 
+/opt/bea/weblogic/12c/user_projects/WLDTESORERIADomain/TREO/fullSuit/</t>
+  </si>
+  <si>
+    <t>El archivo contendra la fecha del día de su creación, colocandolo al final del nombre:
+LOC_151777_TREO_L_MX_001_20180706_{aaaammdd}{hhmmss}</t>
+  </si>
+  <si>
+    <t>RS-0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construcción de la pantalla para la regeneración del Feed Balance Diario
 </t>
   </si>
   <si>
-    <t>Menu: Procesos &gt; Exportación &gt; Regeneración de Archivo FullSuite</t>
-  </si>
-  <si>
-    <t>Se muestra la pantalla de Regeneración de Archivo FullSuite</t>
-  </si>
-  <si>
-    <t>Seleccionamos la fecha, si se reenviara y si se regenerara, hacemos clic en el boton Generar</t>
-  </si>
-  <si>
-    <t>Se mostrara una leyenda de que se ha regenerado o reenviado el archivo</t>
+    <t xml:space="preserve">Se requiere desarrollar una nueva pantalla en la cual se pueda elegir la fecha asi como si se desea regenerar o enviar el archivo Feed Balance Diario.
+</t>
+  </si>
+  <si>
+    <t>Comprobar que los datos exportados en el archivo sean los correctos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que el archivo contenga los datos conforme al sigiente Layout </t>
+  </si>
+  <si>
+    <t>RS-0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select * from UFPPSADM.PS_AF_VALORES_COMP;
+</t>
+  </si>
+  <si>
+    <t>comprobar que se actualizan los contratos  de la tabla UFPPSADM.PS_AF_VALORES_COMP de peoplesoft en la columna CHARTFIELD2</t>
+  </si>
+  <si>
+    <t>Inserción de contratos en PeopleSoft</t>
+  </si>
+  <si>
+    <t>Se requiere insertar en la tabla AF_VALORES_COMP del sistema PeopleSoft los valores de la Cuenta contable, Chartfield2 y el contrato al momento que termine el proceso de exportación de polizas a contabilidad.</t>
+  </si>
+  <si>
+    <t>se espera que a travez del siguiente query se muestren la insercion de los contratos actualizados en intermediarios y ligados en polizas en la columna CHARTFIELD2</t>
+  </si>
+  <si>
+    <t>ejecutar todos los pasos del caso de prueba RS-0020</t>
+  </si>
+  <si>
+    <t>Generación del cron para el envio automatico del archivo Feed Balance Diario</t>
+  </si>
+  <si>
+    <t>Se requiere generar una tarea programada(cron) que permita enviar mediante SFTP los archivo de Feed Balance Diario al servidor de connect direct.</t>
+  </si>
+  <si>
+    <t>esperar a las 23:00 a que se ejecute el cron</t>
+  </si>
+  <si>
+    <t>/opt/bea/weblogic/12c/user_projects/WLDTESORERIADomain/TREO/fullSuit/EnvioDAT{fecha}.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisar en el log con fecha en que se creo el archivo, que este se enviara exitosamente, en caso de que el sistema Intelar no esté activo mostrara un mensaje de error de autenticacion
+</t>
+  </si>
+  <si>
+    <t>RS-0050</t>
+  </si>
+  <si>
+    <t>Seleccionamos la fecha, se selecciona la opción regenerar, hacemos clic en el botón Generar</t>
+  </si>
+  <si>
+    <t>Se mostrará una leyenda "Archivo Generado"</t>
+  </si>
+  <si>
+    <t>Se mostrará una leyenda "Archivo Enviado"
+En caso de que el sistema Intelar no se encuentre activo, mostrara la leyenda "Error en el envío"</t>
+  </si>
+  <si>
+    <t>Seleccionamos la fecha, seleccionar reenviar, hacemos clic en el botón Generar</t>
+  </si>
+  <si>
+    <t>Seleccionar la fecha actual, donde no existen datos</t>
+  </si>
+  <si>
+    <t>Se mostrará una leyenda "No existen archivos para la fecha seleccionada"</t>
+  </si>
+  <si>
+    <t>step 6</t>
+  </si>
+  <si>
+    <t>Seleccionamos la fecha, seleccionar reenviar y deseleccionarmos regenerar, hacemos clic en el botón Generar</t>
+  </si>
+  <si>
+    <t>step 7</t>
+  </si>
+  <si>
+    <t>Seleccionamos la fecha, seleccionar reenviar y regenerar, hacemos clic en el botón Generar</t>
+  </si>
+  <si>
+    <t>Se mostrará una leyenda "Archivo Generado" 
+ "Archivo Enviado"</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1331,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,9 +1423,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="40" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,6 +1432,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1528,6 +1524,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1549,7 +1548,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1218" name="Picture 36"/>
+        <xdr:cNvPr id="1218" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1580,7 +1585,99 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>723900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>1171575</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>1409700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Object 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>723900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>1171575</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>1409700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Object 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Excel.Sheet.12">
+    <oleItems>
+      <oleItem name="'" icon="1" preferPic="1"/>
+    </oleItems>
+  </oleLink>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1870,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,14 +1991,15 @@
     <col min="15" max="15" width="14.85546875" style="15" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" style="18" customWidth="1"/>
     <col min="17" max="17" width="26.7109375" style="18" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
     <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
@@ -1912,44 +2010,44 @@
       <c r="L1" s="4"/>
       <c r="M1" s="19"/>
       <c r="N1" s="20"/>
-      <c r="O1" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="O1" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="O2" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="6"/>
       <c r="F3" s="23"/>
       <c r="G3" s="6"/>
@@ -2036,36 +2134,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33">
+    <row r="6" spans="1:17" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="32">
         <v>151777</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="35" t="str">
+      <c r="G6" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="34" t="str">
         <f>CONCATENATE("MTC-",G6,"-FT-", F6," ", H6)</f>
-        <v xml:space="preserve">MTC-010-FT-SIT P0115509 - Alta de intermediario
-</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>43</v>
+        <v>MTC-RS-0010-FT-SIT Modificación de la pantalla y codigo del catalogo de intermediarios</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="K6" s="29">
         <v>43230</v>
@@ -2074,18 +2173,18 @@
         <v>4</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="26"/>
+      <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:17" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
@@ -2102,16 +2201,16 @@
         <v>43230</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>5</v>
@@ -2136,13 +2235,13 @@
         <v>24</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>5</v>
@@ -2164,16 +2263,16 @@
         <v>43230</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>5</v>
@@ -2195,74 +2294,54 @@
         <v>43230</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="26"/>
     </row>
-    <row r="11" spans="1:17" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33">
-        <v>151777</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="35" t="str">
-        <f>CONCATENATE("MTC-",G11,"-FT-", F11," ", H11)</f>
-        <v xml:space="preserve">MTC-020-FT-SIT P0115509 - Modificiación de intermediario
-</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>54</v>
-      </c>
+    <row r="11" spans="1:17" s="24" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="29">
         <v>43230</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q11" s="26"/>
     </row>
-    <row r="12" spans="1:17" s="24" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -2277,23 +2356,23 @@
         <v>43230</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q12" s="26"/>
     </row>
-    <row r="13" spans="1:17" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="24" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -2308,23 +2387,25 @@
         <v>43230</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" s="24" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="Q13" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="24" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -2339,105 +2420,107 @@
         <v>43230</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="N14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="26"/>
     </row>
-    <row r="15" spans="1:17" s="24" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+    <row r="15" spans="1:17" s="24" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="32">
+        <v>151777</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="34" t="str">
+        <f>CONCATENATE("MTC-",G15,"-FT-", F15," ", H15)</f>
+        <v xml:space="preserve">MTC-RS-0020-FT-SIT Creación del metodo para la generación del Feed Balance Diario
+</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="K15" s="29">
         <v>43230</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q15" s="26"/>
     </row>
-    <row r="16" spans="1:17" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33">
-        <v>151777</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="35" t="str">
-        <f>CONCATENATE("MTC-",G16,"-FT-", F16," ", H16)</f>
-        <v xml:space="preserve">MTC-030-FT-SIT P0115509 - Generación del archivo Feed Balance Diario
-</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>63</v>
-      </c>
+    <row r="16" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="29">
         <v>43230</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q16" s="26"/>
     </row>
-    <row r="17" spans="1:17" s="24" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2452,23 +2535,23 @@
         <v>43230</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q17" s="26"/>
     </row>
-    <row r="18" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2483,23 +2566,23 @@
         <v>43230</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q18" s="26"/>
     </row>
-    <row r="19" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -2511,119 +2594,163 @@
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="29">
-        <v>43230</v>
+        <v>43300</v>
       </c>
       <c r="L19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="30" t="s">
+      <c r="M19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q19" s="26"/>
     </row>
-    <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+    <row r="20" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="32">
+        <v>151777</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="34" t="str">
+        <f>CONCATENATE("MTC-",G20,"-FT-", F20," ", H20)</f>
+        <v>MTC-RS-0030-FT-SIT Inserción de contratos en PeopleSoft</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="K20" s="29">
         <v>43230</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q20" s="26"/>
     </row>
-    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+    <row r="21" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="29">
-        <v>43230</v>
+        <v>43300</v>
       </c>
       <c r="L21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>70</v>
+      <c r="M21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="26"/>
-    </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="Q21" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="32">
+        <v>151777</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="34" t="str">
+        <f>CONCATENATE("MTC-",G22,"-FT-", F22," ", H22)</f>
+        <v>MTC-RS-0040-FT-SIT Generación del cron para el envio automatico del archivo Feed Balance Diario</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="K22" s="29">
         <v>43230</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>47</v>
+        <v>4</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="26"/>
     </row>
-    <row r="23" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2638,54 +2765,78 @@
         <v>43230</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="N23" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="O23" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="26"/>
-    </row>
-    <row r="24" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="Q23" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="32">
+        <v>151777</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="34" t="str">
+        <f>CONCATENATE("MTC-",G24,"-FT-", F24," ", H24)</f>
+        <v xml:space="preserve">MTC-RS-0050-FT-SIT Construcción de la pantalla para la regeneración del Feed Balance Diario
+</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>70</v>
+      </c>
       <c r="K24" s="29">
         <v>43230</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q24" s="26"/>
     </row>
-    <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -2700,25 +2851,23 @@
         <v>43230</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="Q25" s="26"/>
+    </row>
+    <row r="26" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -2730,26 +2879,28 @@
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
       <c r="K26" s="29">
-        <v>43230</v>
+        <v>43300</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>77</v>
+        <v>24</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="26"/>
-    </row>
-    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q26" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -2761,26 +2912,26 @@
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="29">
-        <v>43230</v>
+        <v>43300</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Q27" s="26"/>
     </row>
-    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2792,26 +2943,30 @@
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="29">
-        <v>43230</v>
+        <v>43300</v>
       </c>
       <c r="L28" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28" s="36" t="s">
-        <v>81</v>
+        <v>29</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>93</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P28" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q28" s="26"/>
-    </row>
-    <row r="29" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="Q28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+    </row>
+    <row r="29" spans="1:19" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -2823,26 +2978,30 @@
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="29">
-        <v>43230</v>
+        <v>43300</v>
       </c>
       <c r="L29" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="36" t="s">
-        <v>51</v>
+      <c r="M29" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="26"/>
-    </row>
-    <row r="30" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -2854,230 +3013,116 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="29">
-        <v>43230</v>
+        <v>43300</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="M30" s="36" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="M30" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q30" s="26"/>
-    </row>
-    <row r="31" spans="1:17" ht="51" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="29">
-        <v>43230</v>
-      </c>
-      <c r="L31" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="O31" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="26"/>
-    </row>
-    <row r="32" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="29">
-        <v>43230</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="M32" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="N32" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="O32" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="26"/>
-    </row>
-    <row r="33" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="29">
-        <v>43230</v>
-      </c>
-      <c r="L33" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="N33" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="O33" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="26"/>
-    </row>
-    <row r="34" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33">
-        <v>151777</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" s="35" t="str">
-        <f>CONCATENATE("MTC-",G34,"-FT-", F34," ", H34)</f>
-        <v xml:space="preserve">MTC-040-FT-SIT P0115509 - Regeneración del archivo Feed Balance Diario
-</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="K34" s="29">
-        <v>43230</v>
-      </c>
-      <c r="L34" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="M34" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N34" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q34" s="26"/>
-    </row>
-    <row r="35" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="29">
-        <v>43230</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="M35" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="O35" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="26"/>
-    </row>
-    <row r="36" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="29">
-        <v>43230</v>
-      </c>
-      <c r="L36" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="N36" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="O36" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="26"/>
+      <c r="Q30" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
@@ -3304,171 +3349,6 @@
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:D3"/>
@@ -3479,8 +3359,8 @@
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B60">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B20 A21 B22:B49">
       <formula1>APPLICATION</formula1>
     </dataValidation>
   </dataValidations>
@@ -3489,6 +3369,58 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1046">
+          <objectPr defaultSize="0" dde="1" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>723900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>1409700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1046"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1047">
+          <objectPr defaultSize="0" dde="1" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>723900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>1409700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1047"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -3505,6 +3437,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003737F7DC081A204F91D19A53A1BF25F1" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="65ef50643090f9882a8eff2cab119aa1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -3618,12 +3556,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3634,6 +3566,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70CBFC18-4CBC-434A-9694-5E0AC502B955}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F48A38C7-34AF-49BA-BDE0-CD226C3A4149}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3649,21 +3596,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70CBFC18-4CBC-434A-9694-5E0AC502B955}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF23EFF-3ABC-402E-8D26-FCAFB6FD66FF}">
   <ds:schemaRefs>
